--- a/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B04E30B-0EC4-6E48-B5CF-897CFA963F2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CC79F-1923-6547-890B-BDFAACF74EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -136,6 +136,18 @@
   </si>
   <si>
     <t>Copy</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>MapResName</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>c</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>地图场景资源</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -484,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H7"/>
+  <dimension ref="A1:I7"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="J10" sqref="J10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -499,9 +511,10 @@
     <col min="6" max="6" width="20.6640625" customWidth="1"/>
     <col min="7" max="7" width="13.83203125" customWidth="1"/>
     <col min="8" max="8" width="19.83203125" customWidth="1"/>
+    <col min="9" max="9" width="13.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -526,8 +539,11 @@
       <c r="H1" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>28</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -552,8 +568,11 @@
       <c r="H2" s="1" t="s">
         <v>12</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="3" spans="1:8">
+    <row r="3" spans="1:9">
       <c r="A3" t="s">
         <v>6</v>
       </c>
@@ -570,8 +589,11 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="I3" s="1" t="s">
+        <v>29</v>
+      </c>
     </row>
-    <row r="4" spans="1:8">
+    <row r="4" spans="1:9">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -596,8 +618,11 @@
       <c r="H4" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="I4" s="1" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="5" spans="1:8">
+    <row r="5" spans="1:9">
       <c r="B5" s="2">
         <v>1</v>
       </c>
@@ -619,8 +644,11 @@
       <c r="H5" s="3">
         <v>8</v>
       </c>
+      <c r="I5" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="6" spans="1:8">
+    <row r="6" spans="1:9">
       <c r="B6" s="2">
         <v>2</v>
       </c>
@@ -642,8 +670,11 @@
       <c r="H6" s="3">
         <v>8</v>
       </c>
+      <c r="I6" s="2" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="1:8">
+    <row r="7" spans="1:9">
       <c r="B7" s="2">
         <v>3</v>
       </c>
@@ -664,6 +695,9 @@
       </c>
       <c r="H7" s="3">
         <v>1</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>8</v>
       </c>
     </row>
   </sheetData>

--- a/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{499CC79F-1923-6547-890B-BDFAACF74EAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37137A-EA27-8D45-9BCB-98B35F8208FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="31">
   <si>
     <t>##var</t>
   </si>
@@ -143,11 +143,11 @@
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
   <si>
-    <t>c</t>
-    <phoneticPr fontId="3" type="noConversion"/>
-  </si>
-  <si>
     <t>地图场景资源</t>
+    <phoneticPr fontId="3" type="noConversion"/>
+  </si>
+  <si>
+    <t>GateMap</t>
     <phoneticPr fontId="3" type="noConversion"/>
   </si>
 </sst>
@@ -496,10 +496,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I7"/>
+  <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J10" sqref="J10"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -589,9 +589,7 @@
       <c r="H3" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>29</v>
-      </c>
+      <c r="I3" s="1"/>
     </row>
     <row r="4" spans="1:9">
       <c r="A4" t="s">
@@ -619,7 +617,7 @@
         <v>18</v>
       </c>
       <c r="I4" s="1" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="5" spans="1:9">
@@ -627,10 +625,10 @@
         <v>1</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="E5" s="3" t="s">
         <v>21</v>
@@ -639,30 +637,28 @@
         <v>1</v>
       </c>
       <c r="G5" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H5" s="3">
-        <v>8</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>8</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I5" s="2"/>
     </row>
     <row r="6" spans="1:9">
       <c r="B6" s="2">
         <v>2</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F6" s="3">
-        <v>1000</v>
+        <v>1</v>
       </c>
       <c r="G6" s="3">
         <v>10</v>
@@ -679,24 +675,50 @@
         <v>3</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>26</v>
+        <v>10</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" s="3">
         <v>1000</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="I7" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9">
+      <c r="B8" s="2">
+        <v>4</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="D8" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="F8" s="3">
+        <v>1000</v>
+      </c>
+      <c r="G8" s="3">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3">
+        <v>1</v>
+      </c>
+      <c r="I8" s="2" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA37137A-EA27-8D45-9BCB-98B35F8208FD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A57496-C108-B240-A462-05C59FF8D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -499,7 +499,7 @@
   <dimension ref="A1:I8"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="101" zoomScaleNormal="97" workbookViewId="0">
-      <selection activeCell="J6" sqref="J6"/>
+      <selection activeCell="H7" sqref="H7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15"/>
@@ -687,10 +687,10 @@
         <v>1000</v>
       </c>
       <c r="G7" s="3">
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="H7" s="3">
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>

--- a/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
+++ b/Packages/cn.etetet.wow/Luban/Datas/Map.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tanghai/Documents/WOW/Packages/cn.etetet.wow/Luban/Datas/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45A57496-C108-B240-A462-05C59FF8D8E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C9BE9584-DCA8-B140-9F08-15674A01FFF3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="38400" windowHeight="20560" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -687,10 +687,10 @@
         <v>1000</v>
       </c>
       <c r="G7" s="3">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="H7" s="3">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="I7" s="2" t="s">
         <v>8</v>
